--- a/test-input-2.xlsx
+++ b/test-input-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Python\Synchro Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CA27724-C421-48E1-9B87-AF3B80E57D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84914AE-9B07-450D-AA4B-E6886AB35201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{5D237BFE-6E70-46B0-B930-02A142CD08BA}"/>
+    <workbookView minimized="1" xWindow="348" yWindow="-816" windowWidth="10812" windowHeight="8436" xr2:uid="{5D237BFE-6E70-46B0-B930-02A142CD08BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -788,7 +788,7 @@
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -1057,9 +1057,7 @@
       <c r="F9" s="42">
         <v>5</v>
       </c>
-      <c r="G9" s="43">
-        <v>0.84235695189075965</v>
-      </c>
+      <c r="G9" s="43"/>
       <c r="H9" s="44">
         <v>2</v>
       </c>
@@ -1085,9 +1083,7 @@
       <c r="F10" s="42">
         <v>5</v>
       </c>
-      <c r="G10" s="43">
-        <v>0.77674748549934858</v>
-      </c>
+      <c r="G10" s="43"/>
       <c r="H10" s="44">
         <v>8</v>
       </c>
@@ -1113,9 +1109,7 @@
       <c r="F11" s="42">
         <v>2</v>
       </c>
-      <c r="G11" s="43">
-        <v>0.8731793366770999</v>
-      </c>
+      <c r="G11" s="43"/>
       <c r="H11" s="44">
         <v>1</v>
       </c>
@@ -1143,9 +1137,7 @@
       <c r="F12" s="42">
         <v>25</v>
       </c>
-      <c r="G12" s="43">
-        <v>0.85254351781576032</v>
-      </c>
+      <c r="G12" s="43"/>
       <c r="H12" s="44">
         <v>7</v>
       </c>
@@ -1235,9 +1227,7 @@
       <c r="F15" s="29">
         <v>88</v>
       </c>
-      <c r="G15" s="30">
-        <v>0.88864503435033138</v>
-      </c>
+      <c r="G15" s="30"/>
       <c r="H15" s="31">
         <v>0</v>
       </c>
@@ -1266,9 +1256,7 @@
       <c r="F16" s="42">
         <v>60</v>
       </c>
-      <c r="G16" s="43">
-        <v>0.84483469017789226</v>
-      </c>
+      <c r="G16" s="43"/>
       <c r="H16" s="44">
         <v>0</v>
       </c>
@@ -1294,12 +1282,8 @@
       <c r="F17" s="42">
         <v>38</v>
       </c>
-      <c r="G17" s="43">
-        <v>0.92408044626477626</v>
-      </c>
-      <c r="H17" s="44">
-        <v>6</v>
-      </c>
+      <c r="G17" s="43"/>
+      <c r="H17" s="44"/>
       <c r="I17" s="45"/>
       <c r="J17" s="46"/>
       <c r="K17" s="47"/>
@@ -1324,12 +1308,8 @@
       <c r="F18" s="42">
         <v>31</v>
       </c>
-      <c r="G18" s="43">
-        <v>0.81303211644163587</v>
-      </c>
-      <c r="H18" s="44">
-        <v>0</v>
-      </c>
+      <c r="G18" s="43"/>
+      <c r="H18" s="44"/>
       <c r="I18" s="45"/>
       <c r="J18" s="46"/>
       <c r="K18" s="47"/>
@@ -1352,9 +1332,7 @@
       <c r="F19" s="42">
         <v>28</v>
       </c>
-      <c r="G19" s="43">
-        <v>0.93331179628259209</v>
-      </c>
+      <c r="G19" s="43"/>
       <c r="H19" s="44">
         <v>7</v>
       </c>
@@ -1380,9 +1358,7 @@
       <c r="F20" s="42">
         <v>61</v>
       </c>
-      <c r="G20" s="43">
-        <v>0.98031659608449617</v>
-      </c>
+      <c r="G20" s="43"/>
       <c r="H20" s="44">
         <v>5</v>
       </c>
@@ -1435,9 +1411,7 @@
       <c r="E22">
         <v>20</v>
       </c>
-      <c r="F22" s="42">
-        <v>21</v>
-      </c>
+      <c r="F22" s="42"/>
       <c r="G22" s="43">
         <v>0.85956697261821002</v>
       </c>
@@ -1463,9 +1437,7 @@
       <c r="E23">
         <v>21</v>
       </c>
-      <c r="F23" s="42">
-        <v>13</v>
-      </c>
+      <c r="F23" s="42"/>
       <c r="G23" s="43">
         <v>0.765522866307351</v>
       </c>
@@ -1493,9 +1465,7 @@
       <c r="E24">
         <v>22</v>
       </c>
-      <c r="F24" s="42">
-        <v>77</v>
-      </c>
+      <c r="F24" s="42"/>
       <c r="G24" s="43">
         <v>0.88878012800190342</v>
       </c>
